--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H2">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I2">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J2">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60332422928866</v>
+        <v>1.704614</v>
       </c>
       <c r="N2">
-        <v>1.60332422928866</v>
+        <v>5.113842</v>
       </c>
       <c r="O2">
-        <v>0.1301742714071374</v>
+        <v>0.1078894737559977</v>
       </c>
       <c r="P2">
-        <v>0.1301742714071374</v>
+        <v>0.1126857637256889</v>
       </c>
       <c r="Q2">
-        <v>2.423523189673559</v>
+        <v>2.597881169806</v>
       </c>
       <c r="R2">
-        <v>2.423523189673559</v>
+        <v>15.587287018836</v>
       </c>
       <c r="S2">
-        <v>0.01222925083754765</v>
+        <v>0.009742639741461369</v>
       </c>
       <c r="T2">
-        <v>0.01222925083754765</v>
+        <v>0.007737758595353935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H3">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I3">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J3">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.97456030215364</v>
+        <v>8.267396666666667</v>
       </c>
       <c r="N3">
-        <v>4.97456030215364</v>
+        <v>24.80219</v>
       </c>
       <c r="O3">
-        <v>0.4038857213497108</v>
+        <v>0.5232651355079543</v>
       </c>
       <c r="P3">
-        <v>0.4038857213497108</v>
+        <v>0.5465271946649201</v>
       </c>
       <c r="Q3">
-        <v>7.519353871454728</v>
+        <v>12.59975227450333</v>
       </c>
       <c r="R3">
-        <v>7.519353871454728</v>
+        <v>75.59851364702</v>
       </c>
       <c r="S3">
-        <v>0.03794313379055849</v>
+        <v>0.04725191000607287</v>
       </c>
       <c r="T3">
-        <v>0.03794313379055849</v>
+        <v>0.03752821437504355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H4">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I4">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J4">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.73177011642711</v>
+        <v>3.810163</v>
       </c>
       <c r="N4">
-        <v>3.73177011642711</v>
+        <v>11.430489</v>
       </c>
       <c r="O4">
-        <v>0.3029832937660723</v>
+        <v>0.2411551711968653</v>
       </c>
       <c r="P4">
-        <v>0.3029832937660723</v>
+        <v>0.2518758660754646</v>
       </c>
       <c r="Q4">
-        <v>5.640800064316639</v>
+        <v>5.806798906727</v>
       </c>
       <c r="R4">
-        <v>5.640800064316639</v>
+        <v>34.840793440362</v>
       </c>
       <c r="S4">
-        <v>0.02846383282194831</v>
+        <v>0.02177680428838768</v>
       </c>
       <c r="T4">
-        <v>0.02846383282194831</v>
+        <v>0.01729548243939657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H5">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I5">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J5">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.00709744113633</v>
+        <v>2.0174585</v>
       </c>
       <c r="N5">
-        <v>2.00709744113633</v>
+        <v>4.034917</v>
       </c>
       <c r="O5">
-        <v>0.1629567134770796</v>
+        <v>0.1276902195391827</v>
       </c>
       <c r="P5">
-        <v>0.1629567134770796</v>
+        <v>0.08891117553392644</v>
       </c>
       <c r="Q5">
-        <v>3.033851234622991</v>
+        <v>3.0746652602965</v>
       </c>
       <c r="R5">
-        <v>3.033851234622991</v>
+        <v>12.298661041186</v>
       </c>
       <c r="S5">
-        <v>0.01530900463841061</v>
+        <v>0.01153068750981104</v>
       </c>
       <c r="T5">
-        <v>0.01530900463841061</v>
+        <v>0.006105236277986241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H6">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I6">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J6">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60332422928866</v>
+        <v>1.704614</v>
       </c>
       <c r="N6">
-        <v>1.60332422928866</v>
+        <v>5.113842</v>
       </c>
       <c r="O6">
-        <v>0.1301742714071374</v>
+        <v>0.1078894737559977</v>
       </c>
       <c r="P6">
-        <v>0.1301742714071374</v>
+        <v>0.1126857637256889</v>
       </c>
       <c r="Q6">
-        <v>12.57598878989411</v>
+        <v>14.49411976525</v>
       </c>
       <c r="R6">
-        <v>12.57598878989411</v>
+        <v>130.44707788725</v>
       </c>
       <c r="S6">
-        <v>0.06345923245014136</v>
+        <v>0.05435621493533152</v>
       </c>
       <c r="T6">
-        <v>0.06345923245014136</v>
+        <v>0.06475584859258265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H7">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I7">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J7">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.97456030215364</v>
+        <v>8.267396666666667</v>
       </c>
       <c r="N7">
-        <v>4.97456030215364</v>
+        <v>24.80219</v>
       </c>
       <c r="O7">
-        <v>0.4038857213497108</v>
+        <v>0.5232651355079543</v>
       </c>
       <c r="P7">
-        <v>0.4038857213497108</v>
+        <v>0.5465271946649201</v>
       </c>
       <c r="Q7">
-        <v>39.01894167862239</v>
+        <v>70.29664043208334</v>
       </c>
       <c r="R7">
-        <v>39.01894167862239</v>
+        <v>632.66976388875</v>
       </c>
       <c r="S7">
-        <v>0.1968920401656192</v>
+        <v>0.2636282408621404</v>
       </c>
       <c r="T7">
-        <v>0.1968920401656192</v>
+        <v>0.3140665785928599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H8">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J8">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.73177011642711</v>
+        <v>3.810163</v>
       </c>
       <c r="N8">
-        <v>3.73177011642711</v>
+        <v>11.430489</v>
       </c>
       <c r="O8">
-        <v>0.3029832937660723</v>
+        <v>0.2411551711968653</v>
       </c>
       <c r="P8">
-        <v>0.3029832937660723</v>
+        <v>0.2518758660754646</v>
       </c>
       <c r="Q8">
-        <v>29.27087253678609</v>
+        <v>32.39733971862501</v>
       </c>
       <c r="R8">
-        <v>29.27087253678609</v>
+        <v>291.576057467625</v>
       </c>
       <c r="S8">
-        <v>0.1477026685824525</v>
+        <v>0.1214973237147222</v>
       </c>
       <c r="T8">
-        <v>0.1477026685824525</v>
+        <v>0.144742644575875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H9">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J9">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.00709744113633</v>
+        <v>2.0174585</v>
       </c>
       <c r="N9">
-        <v>2.00709744113633</v>
+        <v>4.034917</v>
       </c>
       <c r="O9">
-        <v>0.1629567134770796</v>
+        <v>0.1276902195391827</v>
       </c>
       <c r="P9">
-        <v>0.1629567134770796</v>
+        <v>0.08891117553392644</v>
       </c>
       <c r="Q9">
-        <v>15.74306335478651</v>
+        <v>17.1541974431875</v>
       </c>
       <c r="R9">
-        <v>15.74306335478651</v>
+        <v>102.925184659125</v>
       </c>
       <c r="S9">
-        <v>0.07944049041388433</v>
+        <v>0.0643321055964057</v>
       </c>
       <c r="T9">
-        <v>0.07944049041388433</v>
+        <v>0.05109357589374835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H10">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I10">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J10">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.60332422928866</v>
+        <v>1.704614</v>
       </c>
       <c r="N10">
-        <v>1.60332422928866</v>
+        <v>5.113842</v>
       </c>
       <c r="O10">
-        <v>0.1301742714071374</v>
+        <v>0.1078894737559977</v>
       </c>
       <c r="P10">
-        <v>0.1301742714071374</v>
+        <v>0.1126857637256889</v>
       </c>
       <c r="Q10">
-        <v>0.6170075892051748</v>
+        <v>0.6631976910446667</v>
       </c>
       <c r="R10">
-        <v>0.6170075892051748</v>
+        <v>5.968779219402</v>
       </c>
       <c r="S10">
-        <v>0.003113459202375944</v>
+        <v>0.002487140773147716</v>
       </c>
       <c r="T10">
-        <v>0.003113459202375944</v>
+        <v>0.002962989816822319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H11">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I11">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J11">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.97456030215364</v>
+        <v>8.267396666666667</v>
       </c>
       <c r="N11">
-        <v>4.97456030215364</v>
+        <v>24.80219</v>
       </c>
       <c r="O11">
-        <v>0.4038857213497108</v>
+        <v>0.5232651355079543</v>
       </c>
       <c r="P11">
-        <v>0.4038857213497108</v>
+        <v>0.5465271946649201</v>
       </c>
       <c r="Q11">
-        <v>1.914361052691972</v>
+        <v>3.216516102932222</v>
       </c>
       <c r="R11">
-        <v>1.914361052691972</v>
+        <v>28.94864492639</v>
       </c>
       <c r="S11">
-        <v>0.009659986587607326</v>
+        <v>0.01206266013153252</v>
       </c>
       <c r="T11">
-        <v>0.009659986587607326</v>
+        <v>0.01437053323213591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H12">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I12">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J12">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.73177011642711</v>
+        <v>3.810163</v>
       </c>
       <c r="N12">
-        <v>3.73177011642711</v>
+        <v>11.430489</v>
       </c>
       <c r="O12">
-        <v>0.3029832937660723</v>
+        <v>0.2411551711968653</v>
       </c>
       <c r="P12">
-        <v>0.3029832937660723</v>
+        <v>0.2518758660754646</v>
       </c>
       <c r="Q12">
-        <v>1.436097852788116</v>
+        <v>1.482383286834333</v>
       </c>
       <c r="R12">
-        <v>1.436097852788116</v>
+        <v>13.341449581509</v>
       </c>
       <c r="S12">
-        <v>0.007246640322585508</v>
+        <v>0.005559271336290104</v>
       </c>
       <c r="T12">
-        <v>0.007246640322585508</v>
+        <v>0.006622891850843168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H13">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I13">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J13">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.00709744113633</v>
+        <v>2.0174585</v>
       </c>
       <c r="N13">
-        <v>2.00709744113633</v>
+        <v>4.034917</v>
       </c>
       <c r="O13">
-        <v>0.1629567134770796</v>
+        <v>0.1276902195391827</v>
       </c>
       <c r="P13">
-        <v>0.1629567134770796</v>
+        <v>0.08891117553392644</v>
       </c>
       <c r="Q13">
-        <v>0.7723917164308278</v>
+        <v>0.7849130764961667</v>
       </c>
       <c r="R13">
-        <v>0.7723917164308278</v>
+        <v>4.709478458977</v>
       </c>
       <c r="S13">
-        <v>0.003897537306564369</v>
+        <v>0.002943600893506349</v>
       </c>
       <c r="T13">
-        <v>0.003897537306564369</v>
+        <v>0.002337854392592352</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H14">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I14">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J14">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60332422928866</v>
+        <v>1.704614</v>
       </c>
       <c r="N14">
-        <v>1.60332422928866</v>
+        <v>5.113842</v>
       </c>
       <c r="O14">
-        <v>0.1301742714071374</v>
+        <v>0.1078894737559977</v>
       </c>
       <c r="P14">
-        <v>0.1301742714071374</v>
+        <v>0.1126857637256889</v>
       </c>
       <c r="Q14">
-        <v>0.6961896648997515</v>
+        <v>0.7640176542793333</v>
       </c>
       <c r="R14">
-        <v>0.6961896648997515</v>
+        <v>6.876158888513999</v>
       </c>
       <c r="S14">
-        <v>0.003513016949391807</v>
+        <v>0.002865238352035856</v>
       </c>
       <c r="T14">
-        <v>0.003513016949391807</v>
+        <v>0.003413426433883155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H15">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I15">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J15">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.97456030215364</v>
+        <v>8.267396666666667</v>
       </c>
       <c r="N15">
-        <v>4.97456030215364</v>
+        <v>24.80219</v>
       </c>
       <c r="O15">
-        <v>0.4038857213497108</v>
+        <v>0.5232651355079543</v>
       </c>
       <c r="P15">
-        <v>0.4038857213497108</v>
+        <v>0.5465271946649201</v>
       </c>
       <c r="Q15">
-        <v>2.160035635035884</v>
+        <v>3.705494034581111</v>
       </c>
       <c r="R15">
-        <v>2.160035635035884</v>
+        <v>33.34944631123</v>
       </c>
       <c r="S15">
-        <v>0.01089967602185538</v>
+        <v>0.01389643755174293</v>
       </c>
       <c r="T15">
-        <v>0.01089967602185538</v>
+        <v>0.0165551557838886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H16">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I16">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J16">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.73177011642711</v>
+        <v>3.810163</v>
       </c>
       <c r="N16">
-        <v>3.73177011642711</v>
+        <v>11.430489</v>
       </c>
       <c r="O16">
-        <v>0.3029832937660723</v>
+        <v>0.2411551711968653</v>
       </c>
       <c r="P16">
-        <v>0.3029832937660723</v>
+        <v>0.2518758660754646</v>
       </c>
       <c r="Q16">
-        <v>1.620395762366137</v>
+        <v>1.707736647523667</v>
       </c>
       <c r="R16">
-        <v>1.620395762366137</v>
+        <v>15.369629827713</v>
       </c>
       <c r="S16">
-        <v>0.008176619195768425</v>
+        <v>0.00640439721550333</v>
       </c>
       <c r="T16">
-        <v>0.008176619195768425</v>
+        <v>0.007629710363521328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H17">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I17">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J17">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.00709744113633</v>
+        <v>2.0174585</v>
       </c>
       <c r="N17">
-        <v>2.00709744113633</v>
+        <v>4.034917</v>
       </c>
       <c r="O17">
-        <v>0.1629567134770796</v>
+        <v>0.1276902195391827</v>
       </c>
       <c r="P17">
-        <v>0.1629567134770796</v>
+        <v>0.08891117553392644</v>
       </c>
       <c r="Q17">
-        <v>0.8715146128526939</v>
+        <v>0.9042363319648333</v>
       </c>
       <c r="R17">
-        <v>0.8715146128526939</v>
+        <v>5.425417991789</v>
       </c>
       <c r="S17">
-        <v>0.004397717692397828</v>
+        <v>0.003391089987434534</v>
       </c>
       <c r="T17">
-        <v>0.004397717692397828</v>
+        <v>0.002693257309538409</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H18">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I18">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J18">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.60332422928866</v>
+        <v>1.704614</v>
       </c>
       <c r="N18">
-        <v>1.60332422928866</v>
+        <v>5.113842</v>
       </c>
       <c r="O18">
-        <v>0.1301742714071374</v>
+        <v>0.1078894737559977</v>
       </c>
       <c r="P18">
-        <v>0.1301742714071374</v>
+        <v>0.1126857637256889</v>
       </c>
       <c r="Q18">
-        <v>2.046948302320512</v>
+        <v>2.20748365307</v>
       </c>
       <c r="R18">
-        <v>2.046948302320512</v>
+        <v>19.86735287763</v>
       </c>
       <c r="S18">
-        <v>0.01032903020991587</v>
+        <v>0.008278561089317318</v>
       </c>
       <c r="T18">
-        <v>0.01032903020991587</v>
+        <v>0.0098624462557238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H19">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I19">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J19">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.97456030215364</v>
+        <v>8.267396666666667</v>
       </c>
       <c r="N19">
-        <v>4.97456030215364</v>
+        <v>24.80219</v>
       </c>
       <c r="O19">
-        <v>0.4038857213497108</v>
+        <v>0.5232651355079543</v>
       </c>
       <c r="P19">
-        <v>0.4038857213497108</v>
+        <v>0.5465271946649201</v>
       </c>
       <c r="Q19">
-        <v>6.350972298224487</v>
+        <v>10.70632002031667</v>
       </c>
       <c r="R19">
-        <v>6.350972298224487</v>
+        <v>96.35688018285001</v>
       </c>
       <c r="S19">
-        <v>0.03204740669626741</v>
+        <v>0.04015111242464179</v>
       </c>
       <c r="T19">
-        <v>0.03204740669626741</v>
+        <v>0.04783297291923573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H20">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I20">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J20">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.73177011642711</v>
+        <v>3.810163</v>
       </c>
       <c r="N20">
-        <v>3.73177011642711</v>
+        <v>11.430489</v>
       </c>
       <c r="O20">
-        <v>0.3029832937660723</v>
+        <v>0.2411551711968653</v>
       </c>
       <c r="P20">
-        <v>0.3029832937660723</v>
+        <v>0.2518758660754646</v>
       </c>
       <c r="Q20">
-        <v>4.764314269647094</v>
+        <v>4.934180135815</v>
       </c>
       <c r="R20">
-        <v>4.764314269647094</v>
+        <v>44.407621222335</v>
       </c>
       <c r="S20">
-        <v>0.02404103023263001</v>
+        <v>0.01850428727897139</v>
       </c>
       <c r="T20">
-        <v>0.02404103023263001</v>
+        <v>0.02204459649694732</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H21">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I21">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J21">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.00709744113633</v>
+        <v>2.0174585</v>
       </c>
       <c r="N21">
-        <v>2.00709744113633</v>
+        <v>4.034917</v>
       </c>
       <c r="O21">
-        <v>0.1629567134770796</v>
+        <v>0.1276902195391827</v>
       </c>
       <c r="P21">
-        <v>0.1629567134770796</v>
+        <v>0.08891117553392644</v>
       </c>
       <c r="Q21">
-        <v>2.562441597697692</v>
+        <v>2.6126188447925</v>
       </c>
       <c r="R21">
-        <v>2.562441597697692</v>
+        <v>15.675713068755</v>
       </c>
       <c r="S21">
-        <v>0.01293024188435036</v>
+        <v>0.00979790934335426</v>
       </c>
       <c r="T21">
-        <v>0.01293024188435036</v>
+        <v>0.007781654587452312</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H22">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I22">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J22">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.60332422928866</v>
+        <v>1.704614</v>
       </c>
       <c r="N22">
-        <v>1.60332422928866</v>
+        <v>5.113842</v>
       </c>
       <c r="O22">
-        <v>0.1301742714071374</v>
+        <v>0.1078894737559977</v>
       </c>
       <c r="P22">
-        <v>0.1301742714071374</v>
+        <v>0.1126857637256889</v>
       </c>
       <c r="Q22">
-        <v>7.437537210019721</v>
+        <v>8.042097818374</v>
       </c>
       <c r="R22">
-        <v>7.437537210019721</v>
+        <v>48.252586910244</v>
       </c>
       <c r="S22">
-        <v>0.03753028175776479</v>
+        <v>0.03015967886470392</v>
       </c>
       <c r="T22">
-        <v>0.03753028175776479</v>
+        <v>0.02395329403132303</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H23">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I23">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J23">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.97456030215364</v>
+        <v>8.267396666666667</v>
       </c>
       <c r="N23">
-        <v>4.97456030215364</v>
+        <v>24.80219</v>
       </c>
       <c r="O23">
-        <v>0.4038857213497108</v>
+        <v>0.5232651355079543</v>
       </c>
       <c r="P23">
-        <v>0.4038857213497108</v>
+        <v>0.5465271946649201</v>
       </c>
       <c r="Q23">
-        <v>23.07610443033696</v>
+        <v>39.00426295726333</v>
       </c>
       <c r="R23">
-        <v>23.07610443033696</v>
+        <v>234.02557774358</v>
       </c>
       <c r="S23">
-        <v>0.116443478087803</v>
+        <v>0.1462747745318238</v>
       </c>
       <c r="T23">
-        <v>0.116443478087803</v>
+        <v>0.1161737397617564</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H24">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I24">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J24">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.73177011642711</v>
+        <v>3.810163</v>
       </c>
       <c r="N24">
-        <v>3.73177011642711</v>
+        <v>11.430489</v>
       </c>
       <c r="O24">
-        <v>0.3029832937660723</v>
+        <v>0.2411551711968653</v>
       </c>
       <c r="P24">
-        <v>0.3029832937660723</v>
+        <v>0.2518758660754646</v>
       </c>
       <c r="Q24">
-        <v>17.31102081110586</v>
+        <v>17.975743218083</v>
       </c>
       <c r="R24">
-        <v>17.31102081110586</v>
+        <v>107.854459308498</v>
       </c>
       <c r="S24">
-        <v>0.08735250261068747</v>
+        <v>0.06741308736299059</v>
       </c>
       <c r="T24">
-        <v>0.08735250261068747</v>
+        <v>0.05354054034888124</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H25">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I25">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J25">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.00709744113633</v>
+        <v>2.0174585</v>
       </c>
       <c r="N25">
-        <v>2.00709744113633</v>
+        <v>4.034917</v>
       </c>
       <c r="O25">
-        <v>0.1629567134770796</v>
+        <v>0.1276902195391827</v>
       </c>
       <c r="P25">
-        <v>0.1629567134770796</v>
+        <v>0.08891117553392644</v>
       </c>
       <c r="Q25">
-        <v>9.310569646421298</v>
+        <v>9.518048427098501</v>
       </c>
       <c r="R25">
-        <v>9.310569646421298</v>
+        <v>38.072193708394</v>
       </c>
       <c r="S25">
-        <v>0.0469817215414721</v>
+        <v>0.03569482620867086</v>
       </c>
       <c r="T25">
-        <v>0.0469817215414721</v>
+        <v>0.01889959707260878</v>
       </c>
     </row>
   </sheetData>
